--- a/data/FOMC_Cycle_dates_2014_2016.xlsx
+++ b/data/FOMC_Cycle_dates_2014_2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">FOMC cycle dates start and end dates from January 2014 till December 2016</t>
   </si>
@@ -37,22 +37,13 @@
     <t xml:space="preserve">https://www.federalreserve.gov/monetarypolicy/fomchistorical2015.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">... Et. Al</t>
+    <t xml:space="preserve">https://www.federalreserve.gov/monetarypolicy/fomchistorical2014.htm</t>
   </si>
   <si>
     <t xml:space="preserve">FOMC Date Start</t>
   </si>
   <si>
     <t xml:space="preserve">FOMC Date End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irregular meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News / What happened?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unscheduled</t>
   </si>
 </sst>
 </file>
@@ -63,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -102,6 +93,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -110,10 +108,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Georgia"/>
-      <family val="0"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -168,7 +167,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,15 +180,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,7 +264,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -278,15 +281,15 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="99.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="99.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,355 +318,346 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+    </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="6" t="n">
         <v>42766</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="6" t="n">
         <v>42767</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>42717</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>42718</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="3" t="n">
         <v>42675</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>42676</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>42633</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>42634</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="3" t="n">
         <v>42577</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>42578</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="3" t="n">
         <v>42535</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>42536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="3" t="n">
         <v>42486</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>42487</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42445</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>42395</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42396</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="3" t="n">
         <v>42353</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42354</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="3" t="n">
         <v>42304</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42305</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="3" t="n">
         <v>42263</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="3" t="n">
         <v>42213</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42214</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="3" t="n">
         <v>42171</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42172</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="3" t="n">
         <v>42122</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42123</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="3" t="n">
         <v>42080</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42081</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="3" t="n">
         <v>42031</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>42032</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="3" t="n">
         <v>41989</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>41990</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="3" t="n">
         <v>41940</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>41941</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="3" t="n">
         <v>41898</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>41899</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="3" t="n">
         <v>41849</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>41850</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="3" t="n">
         <v>41807</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>41808</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="3" t="n">
         <v>41758</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>41759</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="3" t="n">
         <v>41716</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>41717</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>41702</v>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>41703</v>
+      <c r="A35" s="3" t="n">
+        <v>41667</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>41668</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>41667</v>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>41668</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="A36" s="6" t="n">
+        <v>41625</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>41626</v>
+      </c>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>41625</v>
-      </c>
-      <c r="B37" s="4" t="n">
-        <v>41626</v>
-      </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
